--- a/Ресурсы Frontend.xlsx
+++ b/Ресурсы Frontend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Верстка!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>https://wireframe.cc/</t>
   </si>
@@ -288,13 +288,43 @@
     <t>https://gulpjs.com/</t>
   </si>
   <si>
-    <t>галп</t>
+    <t>галп + установка node js</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gulp-sass</t>
+  </si>
+  <si>
+    <t>https://www.browsersync.io/</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/browser-sync</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gulp-autoprefixer</t>
+  </si>
+  <si>
+    <t>пакеты</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gulp-clean-css</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/gulp-rename</t>
+  </si>
+  <si>
+    <t>БЭМ</t>
+  </si>
+  <si>
+    <t>https://ru.bem.info/methodology/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,29 +662,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,13 +708,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,33 +722,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -726,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -742,12 +772,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -755,7 +785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -763,7 +793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -771,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -779,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -787,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -795,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -803,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -811,13 +841,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -825,7 +855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -833,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -841,13 +871,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -855,7 +885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -863,13 +893,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -877,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -885,7 +915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -893,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -901,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -909,7 +939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -917,13 +947,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -931,7 +961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -939,7 +969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -947,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -955,7 +985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -963,13 +993,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -977,13 +1007,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -991,7 +1021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -999,7 +1029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1007,7 +1037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -1015,7 +1045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -1023,18 +1053,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -1042,9 +1072,69 @@
         <v>88</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:B50"/>

--- a/Ресурсы Frontend.xlsx
+++ b/Ресурсы Frontend.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Верстка!$A$2:$B$2</definedName>
@@ -359,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -367,17 +368,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +735,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -709,10 +769,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -743,10 +803,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -842,10 +902,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -872,10 +932,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -894,10 +954,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -948,10 +1008,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -994,10 +1054,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1008,10 +1068,10 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1059,10 +1119,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1121,10 +1181,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1139,12 +1199,12 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1166,4 +1226,1017 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X76" sqref="A1:X76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="18" width="3.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="21" width="3.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="4"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="4"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="4"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="4"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="4"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="4"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="4"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="4"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="4"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="6"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="4"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="4"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="6"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="4"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="4"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="6"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="4"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="4"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="6"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="4"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="4"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="6"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="6"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="4"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="4"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="6"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="4"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="4"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="4"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="6"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="6"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="4"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="4"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="6"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="6"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="4"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="4"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="4"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="6"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="6"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="6"/>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="4"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="4"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="4"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="4"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+    </row>
+    <row r="66" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="6"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="6"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="6"/>
+    </row>
+    <row r="67" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="4"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="4"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="4"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+    </row>
+    <row r="69" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="6"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="6"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="6"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="4"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="4"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="4"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="4"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="6"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="6"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="6"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="4"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="4"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="4"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="4"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+    </row>
+    <row r="75" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="6"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="6"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="6"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>